--- a/premise/data/additional_inventories/lci-fuel-cell-SOFC-eol.xlsx
+++ b/premise/data/additional_inventories/lci-fuel-cell-SOFC-eol.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="856" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52163062-A810-4716-8B18-1343ED8BF28B}"/>
+  <xr:revisionPtr revIDLastSave="873" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{955DE863-38C2-4271-9979-9F8904D301EE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,9 @@
     <sheet name="Fuel_Cell_SOFC_EOL" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="btbl4fnb" localSheetId="0">Fuel_Cell_SOFC_EOL!$H$95</definedName>
+    <definedName name="btbl4fnb" localSheetId="0">Fuel_Cell_SOFC_EOL!$H$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,26 +34,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="95">
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>fuel_cell_SOFC_EoL</t>
+  </si>
   <si>
     <t>Activity</t>
   </si>
   <si>
+    <t>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>90% recovery rate is assumed according to Mori (2025) --&gt; from 5.06g fuel cell we can recover 2.02g YSZ with 8% Y and 92%Z</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>RER</t>
+  </si>
+  <si>
     <t>production amount</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
+    <t>Mori et al. (2025). New life cycle inventories for end-of-life solid oxide cells based on novel recycling processes for critical solid oxide cell materials</t>
+  </si>
+  <si>
     <t>reference product</t>
   </si>
   <si>
+    <t>yttrium oxide</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
@@ -78,232 +99,226 @@
     <t>categories</t>
   </si>
   <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
     <t>production</t>
   </si>
   <si>
+    <t>from 5.06g fuel cell we can recover 2.02g YSZ with 8% Y and 92%Z</t>
+  </si>
+  <si>
+    <t>zirconium oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      </t>
+  </si>
+  <si>
+    <t>90% recovery rate is assumed according to Mori (2025) --&gt; from 5.06g fuel cell we can recover 1g NiO</t>
+  </si>
+  <si>
+    <t>nickel, class 1</t>
+  </si>
+  <si>
+    <t>in the form of nickel oxide</t>
+  </si>
+  <si>
+    <t>treatment of used solide oxide cell, cathode recovery, nitric acid route</t>
+  </si>
+  <si>
+    <t>87% recovery rate is assumed according to Mori (2025). --&gt; from 402.56g fuel cell we can recover 1.36g lanthanum oxide and 1g cobalt oxide</t>
+  </si>
+  <si>
+    <t>cobalt oxide</t>
+  </si>
+  <si>
+    <t>nitric acide route for cathode recycling</t>
+  </si>
+  <si>
+    <t>100% recovery rate is assumed according to Mori (2025). --&gt; from 402.56g fuel cell we can recover 1.36g lanthanum oxide and 1g cobalt oxide</t>
+  </si>
+  <si>
+    <t>lanthanum oxide</t>
+  </si>
+  <si>
+    <t>treatment of used fuel cell stack, 125kW, SOFC</t>
+  </si>
+  <si>
+    <t>LCI data scaled up for 125kWe fuel cell stack</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>used fuel cell stack, 125kWe, SOFC</t>
+  </si>
+  <si>
+    <t>for 1 unit of stack, modeled according to "fuel cell production, stack solid oxide, 125kW electrical, future"</t>
+  </si>
+  <si>
     <t>technosphere</t>
   </si>
   <si>
-    <t>CH</t>
+    <t>1.36g lanthanum oxide and 1g cobalth oxide are recovered from 1.36g lanthanum and 1.15g cobalt; for 31.225kg La, we can recover the same amount --&gt; 31.225kg/1.36g cobalt = 22959.5 unit. For 3.75kg cobalt we can recover 3.26kg. 3.75kg/1.15g cobalt = 3260.9 unit. not the same scale, take the small amount to recover --&gt; 3290.6 unit</t>
+  </si>
+  <si>
+    <t>We have 2.02g YSZ with 0.16g Yttrium and 1.86 zirconium recovered --&gt; 2.24g YSZ with 0.18g Y and 2.06g Zr; For 11.906kg Y, we can recover 10.71kg --&gt; 11.906kg/0.18g = 66144.4 unit. For 84.8kg Zr, we can recover 76.32kg --&gt; 84.8kg/2.06g = 41165 unit. We have 1g  Nickel recovered from 1.11g Nickel --&gt; 437.5kg/1.11g = 397727.3 unit. not the same scale, take the small amount to recover ---&gt; 41165uni</t>
+  </si>
+  <si>
+    <t>treatment of municipal solid waste, municipal incineration FAE</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Other metals are incinerated (chromium, cerium, manganese, gadolinium, vinyl acetate)</t>
+  </si>
+  <si>
+    <t>market for waste steel</t>
+  </si>
+  <si>
+    <t>waste steel</t>
+  </si>
+  <si>
+    <t>market for waste aluminium</t>
+  </si>
+  <si>
+    <t>waste aluminium</t>
+  </si>
+  <si>
+    <t>LCI data from Table 4 according to Mori et al. (2025) and Figure S1 from Supplementary Information</t>
+  </si>
+  <si>
+    <t>waste LSC cathode from used solide oxide cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Figure S1 from the Supplementary Information of Mori 2025 and Table 4. Given for 402.56g EoL SOC Cell. The treatment is modeled for 1.36 g Lanthanum oxide (100% efficiency) and 1g of Cobalt oxide (87% efficiency). LSC mass is not given… </t>
+  </si>
+  <si>
+    <t>market for water, deionised</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>5298.69g</t>
+  </si>
+  <si>
+    <t>market for hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>hydrogen peroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>1.39 g/mL for nitric acid, 1.11 g/mL for hydrogen peroxide and 1.43 g/mL for sodium hydroxide. Calculation: 9.53 mL*1.1g/mL = 10.6g</t>
+  </si>
+  <si>
+    <t>market for nitric acid, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>RER w/o RU</t>
+  </si>
+  <si>
+    <t>nitric acid, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>1.39 g/mL for nitric acid, 1.11 g/mL for hydrogen peroxide and 1.43 g/mL for sodium hydroxide. Calculation: 43.40 mL*1.39g/mL = 60.33g</t>
+  </si>
+  <si>
+    <t>chlor-alkali electrolysis, average production</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>1.39 g/mL for nitric acid, 1.11 g/mL for hydrogen peroxide and 1.43 g/mL for sodium hydroxide. Calculation: 59.38 mL*1.43g/mL = 84.91g</t>
+  </si>
+  <si>
+    <t>market for oxalic acid</t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>oxalic acid</t>
+  </si>
+  <si>
+    <t>market group for electricity, low voltage</t>
   </si>
   <si>
     <t>kilowatt hour</t>
   </si>
   <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>RER</t>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>for all steps. See Figure S1 from the Supplementary Information of Mori 2025 and Table 4. Given for 402.56g EoL SOC Cell</t>
+  </si>
+  <si>
+    <t>waste from nitric acid route (sealant removal, LSC losses, calcination losses) = 38.34g + 1.23g + 14.81g + 0.77g = 55.15g</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
   </si>
   <si>
     <t>cubic meter</t>
   </si>
   <si>
-    <t>sodium hydroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
-    <t>market for water, deionised</t>
-  </si>
-  <si>
-    <t>treatment of wastewater, average, wastewater treatment</t>
-  </si>
-  <si>
     <t>wastewater, average</t>
   </si>
   <si>
-    <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>market for hydrogen peroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>hydrogen peroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>chlor-alkali electrolysis, average production</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
+    <t>Deonized water from rinsing = 5298.7g = 5.3/1000m3</t>
+  </si>
+  <si>
+    <t>treatment of spent solvent mixture, hazardous waste incineration</t>
+  </si>
+  <si>
+    <t>spent solvent mixture</t>
+  </si>
+  <si>
+    <t>Waste solvents and chemicals = 119.12 mL = 0.11912kg</t>
+  </si>
+  <si>
+    <t>LCI data from Table 5 according to Mori et al. (2025) and Figure S2, S3 from Supplementary Information</t>
+  </si>
+  <si>
+    <t>waste electrode from used solid oxide cell</t>
+  </si>
+  <si>
+    <t>See Figure S2 and S3 from the Supplementary Information of Mori 2025 and Table 5. Given for 5.06g EoL SOC Cell. The treatment is modeled for 1 g nickel oxide (90% efficiency) and 2.02g of yttria-stabilised zirconia (90% efficiency). Individual massof each component is not given...</t>
+  </si>
+  <si>
+    <t>1568.38g</t>
+  </si>
+  <si>
+    <t>for all steps. See Figure S2 and S3 from the Supplementary Information of Mori 2025 and Table 5. Given for 5.06g EoL SOC Cell</t>
+  </si>
+  <si>
+    <t>waste from hydrothermal treatment (sealant removal, LSC losses, GDC losses, Ni and YSZ losses, calcination losses) = 0.48g + 0.24g + 0.24g + 0.05g + 0.24g + 0.79= 2.04g</t>
+  </si>
+  <si>
+    <t>Deonized water from rinsing = 1568.38g = 1.57/1000m3</t>
   </si>
   <si>
     <t>Waste solvents and chemicals = 58.57 mL = 0.5857kg</t>
-  </si>
-  <si>
-    <t>spent solvent mixture</t>
-  </si>
-  <si>
-    <t>treatment of spent solvent mixture, hazardous waste incineration</t>
-  </si>
-  <si>
-    <t>Deonized water from rinsing = 1568.38g = 1.57/1000m3</t>
-  </si>
-  <si>
-    <t>waste from hydrothermal treatment (sealant removal, LSC losses, GDC losses, Ni and YSZ losses, calcination losses) = 0.48g + 0.24g + 0.24g + 0.05g + 0.24g + 0.79= 2.04g</t>
-  </si>
-  <si>
-    <t>for all steps. See Figure S2 and S3 from the Supplementary Information of Mori 2025 and Table 5. Given for 5.06g EoL SOC Cell</t>
-  </si>
-  <si>
-    <t>market group for electricity, low voltage</t>
-  </si>
-  <si>
-    <t>nitric acid, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>RER w/o RU</t>
-  </si>
-  <si>
-    <t>market for nitric acid, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>1568.38g</t>
-  </si>
-  <si>
-    <t>See Figure S2 and S3 from the Supplementary Information of Mori 2025 and Table 5. Given for 5.06g EoL SOC Cell. The treatment is modeled for 1 g nickel oxide (90% efficiency) and 2.02g of yttria-stabilised zirconia (90% efficiency). Individual massof each component is not given...</t>
-  </si>
-  <si>
-    <t>waste electrode from used solid oxide cell</t>
-  </si>
-  <si>
-    <t>Mori et al. (2025). New life cycle inventories for end-of-life solid oxide cells based on novel recycling processes for critical solid oxide cell materials</t>
-  </si>
-  <si>
-    <t>LCI data from Table 5 according to Mori et al. (2025) and Figure S2, S3 from Supplementary Information</t>
-  </si>
-  <si>
-    <t>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</t>
-  </si>
-  <si>
-    <t>Waste solvents and chemicals = 119.12 mL = 0.11912kg</t>
-  </si>
-  <si>
-    <t>Deonized water from rinsing = 5298.7g = 5.3/1000m3</t>
-  </si>
-  <si>
-    <t>waste from nitric acid route (sealant removal, LSC losses, calcination losses) = 38.34g + 1.23g + 14.81g + 0.77g = 55.15g</t>
-  </si>
-  <si>
-    <t>for all steps. See Figure S1 from the Supplementary Information of Mori 2025 and Table 4. Given for 402.56g EoL SOC Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Figure S1 from the Supplementary Information of Mori 2025 and Table 4. Given for 402.56g EoL SOC Cell. The treatment is modeled for 1.36 g Lanthanum oxide (100% efficiency) and 1g of Cobalt oxide (87% efficiency). LSC mass is not given… </t>
-  </si>
-  <si>
-    <t>oxalic acid</t>
-  </si>
-  <si>
-    <t>market for oxalic acid</t>
-  </si>
-  <si>
-    <t>1.39 g/mL for nitric acid, 1.11 g/mL for hydrogen peroxide and 1.43 g/mL for sodium hydroxide. Calculation: 59.38 mL*1.43g/mL = 84.91g</t>
-  </si>
-  <si>
-    <t>1.39 g/mL for nitric acid, 1.11 g/mL for hydrogen peroxide and 1.43 g/mL for sodium hydroxide. Calculation: 43.40 mL*1.39g/mL = 60.33g</t>
-  </si>
-  <si>
-    <t>1.39 g/mL for nitric acid, 1.11 g/mL for hydrogen peroxide and 1.43 g/mL for sodium hydroxide. Calculation: 9.53 mL*1.1g/mL = 10.6g</t>
-  </si>
-  <si>
-    <t>5298.69g</t>
-  </si>
-  <si>
-    <t>waste LSC cathode from used solide oxide cell</t>
-  </si>
-  <si>
-    <t>LCI data from Table 4 according to Mori et al. (2025) and Figure S1 from Supplementary Information</t>
-  </si>
-  <si>
-    <t>treatment of used solide oxide cell, cathode recovery, nitric acid route</t>
-  </si>
-  <si>
-    <t>We have 2.02g YSZ with 0.16g Yttrium and 1.86 zirconium recovered --&gt; 2.24g YSZ with 0.18g Y and 2.06g Zr; For 11.906kg Y, we can recover 10.71kg --&gt; 11.906kg/0.18g = 66144.4 unit. For 84.8kg Zr, we can recover 76.32kg --&gt; 84.8kg/2.06g = 41165 unit. We have 1g  Nickel recovered from 1.11g Nickel --&gt; 437.5kg/1.11g = 397727.3 unit. not the same scale, take the small amount to recover ---&gt; 41165uni</t>
-  </si>
-  <si>
-    <t>1.36g lanthanum oxide and 1g cobalth oxide are recovered from 1.36g lanthanum and 1.15g cobalt; for 31.225kg La, we can recover the same amount --&gt; 31.225kg/1.36g cobalt = 22959.5 unit. For 3.75kg cobalt we can recover 3.26kg. 3.75kg/1.15g cobalt = 3260.9 unit. not the same scale, take the small amount to recover --&gt; 3290.6 unit</t>
-  </si>
-  <si>
-    <t>for 1 unit of stack, modeled according to "fuel cell production, stack solid oxide, 125kW electrical, future"</t>
-  </si>
-  <si>
-    <t>used fuel cell stack, 125kWe, SOFC</t>
-  </si>
-  <si>
-    <t>LCI data scaled up for 125kWe fuel cell stack</t>
-  </si>
-  <si>
-    <t>treatment of used fuel cell stack, 125kW, SOFC</t>
-  </si>
-  <si>
-    <t>nitric acide route for cathode recycling</t>
-  </si>
-  <si>
-    <t>lanthanum oxide</t>
-  </si>
-  <si>
-    <t>100% recovery rate is assumed according to Mori (2025). --&gt; from 402.56g fuel cell we can recover 1.36g lanthanum oxide and 1g cobalt oxide</t>
-  </si>
-  <si>
-    <t>cobalt oxide</t>
-  </si>
-  <si>
-    <t>87% recovery rate is assumed according to Mori (2025). --&gt; from 402.56g fuel cell we can recover 1.36g lanthanum oxide and 1g cobalt oxide</t>
-  </si>
-  <si>
-    <t>in the form of nickel oxide</t>
-  </si>
-  <si>
-    <t>nickel, class 1</t>
-  </si>
-  <si>
-    <t>90% recovery rate is assumed according to Mori (2025) --&gt; from 5.06g fuel cell we can recover 1g NiO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      </t>
-  </si>
-  <si>
-    <t>from 5.06g fuel cell we can recover 2.02g YSZ with 8% Y and 92%Z</t>
-  </si>
-  <si>
-    <t>zirconium oxide</t>
-  </si>
-  <si>
-    <t>90% recovery rate is assumed according to Mori (2025) --&gt; from 5.06g fuel cell we can recover 2.02g YSZ with 8% Y and 92%Z</t>
-  </si>
-  <si>
-    <t>yttrium oxide</t>
-  </si>
-  <si>
-    <t>fuel_cell_SOFC_EoL</t>
-  </si>
-  <si>
-    <t>treatment of municipal solid waste, municipal incineration FAE</t>
   </si>
 </sst>
 </file>
@@ -313,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -411,6 +426,7 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,48 +708,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1440FDC6-73D8-4C45-B229-18F26561D655}">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="56" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="137" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="65.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1"/>
       <c r="R1" s="10"/>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="P2" s="1"/>
       <c r="R2" s="10"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A3" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -751,12 +767,12 @@
       <c r="P3" s="1"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -772,12 +788,12 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -793,9 +809,9 @@
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -815,12 +831,12 @@
       <c r="O6" s="7"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -836,12 +852,12 @@
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -857,12 +873,12 @@
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -879,12 +895,12 @@
       <c r="O9" s="7"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -900,9 +916,9 @@
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
     </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -920,55 +936,55 @@
       <c r="O11" s="7"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="30.95">
       <c r="A13" s="9" t="str">
         <f>B3</f>
         <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
@@ -982,17 +998,17 @@
         <v>RER</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1002,15 +1018,15 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15.6">
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1027,12 +1043,12 @@
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A16" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1049,12 +1065,12 @@
       <c r="O16" s="7"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1070,9 +1086,9 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
     </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -1092,12 +1108,12 @@
       <c r="O18" s="7"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1113,12 +1129,12 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A20" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1134,12 +1150,12 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A21" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1156,12 +1172,12 @@
       <c r="O21" s="7"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A22" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1178,9 +1194,9 @@
       <c r="O22" s="7"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1197,55 +1213,55 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="30.95">
       <c r="A25" s="9" t="str">
         <f>B15</f>
         <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
@@ -1259,17 +1275,17 @@
         <v>RER</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1279,12 +1295,12 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="15.6">
       <c r="A27" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1302,15 +1318,15 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A28" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1327,12 +1343,12 @@
       <c r="O28" s="7"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A29" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1349,9 +1365,9 @@
       <c r="O29" s="7"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A30" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -1371,12 +1387,12 @@
       <c r="O30" s="7"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A31" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1393,12 +1409,12 @@
       <c r="O31" s="7"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:18" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="2" customFormat="1" ht="15.6">
       <c r="A32" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1415,12 +1431,12 @@
       <c r="O32" s="7"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A33" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1438,12 +1454,12 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A34" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1461,9 +1477,9 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A35" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1482,54 +1498,54 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15.6">
       <c r="A36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H36" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="30.95">
       <c r="A37" s="9" t="str">
         <f>B27</f>
         <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
@@ -1543,17 +1559,17 @@
         <v>RER</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -1565,7 +1581,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="15.6">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1584,12 +1600,12 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15.6">
       <c r="A39" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1607,12 +1623,12 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A40" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1629,12 +1645,12 @@
       <c r="O40" s="7"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A41" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1651,9 +1667,9 @@
       <c r="O41" s="7"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A42" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B42" s="7">
         <v>1</v>
@@ -1673,12 +1689,12 @@
       <c r="O42" s="7"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A43" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1695,12 +1711,12 @@
       <c r="O43" s="7"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A44" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1717,12 +1733,12 @@
       <c r="O44" s="7"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A45" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1740,12 +1756,12 @@
       <c r="P45"/>
       <c r="Q45"/>
     </row>
-    <row r="46" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A46" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1763,9 +1779,9 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="47" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A47" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1784,54 +1800,54 @@
       <c r="P47"/>
       <c r="Q47"/>
     </row>
-    <row r="48" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15.6">
       <c r="A48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="30.95">
       <c r="A49" s="9" t="str">
         <f>B39</f>
         <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
@@ -1845,17 +1861,17 @@
         <v>RER</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -1867,7 +1883,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15.6">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1886,12 +1902,12 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="15.6">
       <c r="A51" s="6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -1909,12 +1925,12 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A52" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -1931,12 +1947,12 @@
       <c r="O52" s="7"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A53" s="7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -1953,9 +1969,9 @@
       <c r="O53" s="7"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A54" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B54" s="7">
         <v>1</v>
@@ -1975,12 +1991,12 @@
       <c r="O54" s="7"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A55" s="7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -1997,12 +2013,12 @@
       <c r="O55" s="7"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A56" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2019,12 +2035,12 @@
       <c r="O56" s="7"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="15.6">
       <c r="A57" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2040,12 +2056,12 @@
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="15.6">
       <c r="A58" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2061,9 +2077,9 @@
       <c r="N58" s="7"/>
       <c r="O58" s="7"/>
     </row>
-    <row r="59" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="15.6">
       <c r="A59" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2080,54 +2096,54 @@
       <c r="N59" s="7"/>
       <c r="O59" s="7"/>
     </row>
-    <row r="60" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="15.6">
       <c r="A60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="H60" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="30.95">
       <c r="A61" s="9" t="str">
         <f>B51</f>
         <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
@@ -2141,17 +2157,17 @@
         <v>RER</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -2163,7 +2179,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="15.6">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2182,12 +2198,12 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="15.6">
       <c r="A63" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2205,12 +2221,12 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="15.6">
       <c r="A64" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2228,12 +2244,12 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A65" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2250,9 +2266,9 @@
       <c r="O65" s="5"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A66" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B66" s="5">
         <v>-1</v>
@@ -2273,12 +2289,12 @@
       <c r="P66"/>
       <c r="Q66"/>
     </row>
-    <row r="67" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A67" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2296,12 +2312,12 @@
       <c r="P67"/>
       <c r="Q67"/>
     </row>
-    <row r="68" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A68" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2319,12 +2335,12 @@
       <c r="P68"/>
       <c r="Q68"/>
     </row>
-    <row r="69" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="15.6">
       <c r="A69" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2340,12 +2356,12 @@
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
     </row>
-    <row r="70" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A70" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -2363,9 +2379,9 @@
       <c r="P70"/>
       <c r="Q70"/>
     </row>
-    <row r="71" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A71" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2384,56 +2400,56 @@
       <c r="P71"/>
       <c r="Q71"/>
     </row>
-    <row r="72" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A72" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P72"/>
       <c r="Q72"/>
     </row>
-    <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="15.6">
       <c r="A73" s="5" t="str">
         <f>B63</f>
         <v>treatment of used fuel cell stack, 125kW, SOFC</v>
@@ -2451,14 +2467,14 @@
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G73" s="5" t="str">
         <f>B68</f>
         <v>used fuel cell stack, 125kWe, SOFC</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -2468,30 +2484,30 @@
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
-    <row r="74" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="46.5">
       <c r="A74" s="8" t="str">
-        <f>A87</f>
+        <f>A90</f>
         <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
       </c>
       <c r="B74" s="17">
         <v>-3260.9</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f>G87</f>
+        <f>G90</f>
         <v>waste LSC cathode from used solide oxide cell</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -2503,30 +2519,30 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="46.5">
       <c r="A75" s="8" t="str">
-        <f>A108</f>
+        <f>A111</f>
         <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
       </c>
       <c r="B75" s="17">
         <v>-41165</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f>G108</f>
+        <f>G111</f>
         <v>waste electrode from used solid oxide cell</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -2538,80 +2554,109 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="77" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
+    <row r="76" spans="1:17" ht="15.6">
+      <c r="A76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="18">
+        <v>-75.599999999999994</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" ht="15.6">
+      <c r="A77" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="18">
+        <f>-5816</f>
+        <v>-5816</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
+    <row r="78" spans="1:17" ht="15.6">
+      <c r="A78" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="18">
+        <f>-3203.1</f>
+        <v>-3203.1</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
+    <row r="80" spans="1:17" ht="15.6">
+      <c r="A80" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="11">
-        <v>-1</v>
+      <c r="B80" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2626,15 +2671,15 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-    </row>
-    <row r="81" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" ht="15.6">
       <c r="A81" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2649,15 +2694,15 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-    </row>
-    <row r="82" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A82" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2672,15 +2717,14 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
-      <c r="P82"/>
-      <c r="Q82"/>
-    </row>
-    <row r="83" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A83" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B83" s="11">
+        <v>-1</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2698,12 +2742,12 @@
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A84" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2721,11 +2765,13 @@
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="11"/>
+    <row r="85" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A85" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -2742,81 +2788,42 @@
       <c r="P85"/>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="16" t="s">
+    <row r="86" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A86" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L86" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M86" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O86" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="B86" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="str">
-        <f>B77</f>
-        <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
-      </c>
-      <c r="B87" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="11" t="str">
-        <f>B84</f>
-        <v>unit</v>
-      </c>
+    <row r="87" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="11" t="str">
-        <f>B82</f>
-        <v>waste LSC cathode from used solide oxide cell</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
@@ -2827,29 +2834,17 @@
       <c r="P87"/>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>9</v>
-      </c>
+    <row r="88" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A88" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
@@ -2857,64 +2852,83 @@
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="13">
-        <f>1.11*9.53/1000</f>
-        <v>1.0578300000000001E-2</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="P88"/>
+      <c r="Q88"/>
+    </row>
+    <row r="89" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A89" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M89" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="13">
-        <f>43.4*1.39</f>
-        <v>60.325999999999993</v>
+      <c r="O89" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P89"/>
+      <c r="Q89"/>
+    </row>
+    <row r="90" spans="1:17" s="2" customFormat="1" ht="30.95">
+      <c r="A90" s="12" t="str">
+        <f>B80</f>
+        <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
+      </c>
+      <c r="B90" s="11">
+        <v>-1</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D90" s="11" t="str">
+        <f>B87</f>
+        <v>unit</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="G90" s="11" t="str">
+        <f>B85</f>
+        <v>waste LSC cathode from used solide oxide cell</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
@@ -2923,31 +2937,31 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
-      <c r="P90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P90"/>
+      <c r="Q90"/>
+    </row>
+    <row r="91" spans="1:17" s="2" customFormat="1" ht="15.6">
       <c r="A91" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="13">
-        <f>59.38*1.43</f>
-        <v>84.913399999999996</v>
+        <v>59</v>
+      </c>
+      <c r="B91" s="15">
+        <v>5.3</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
@@ -2958,29 +2972,29 @@
       <c r="O91" s="11"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="2" customFormat="1" ht="30.95">
       <c r="A92" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B92" s="13">
-        <f>6.88/1000</f>
-        <v>6.8799999999999998E-3</v>
+        <f>1.11*9.53/1000</f>
+        <v>1.0578300000000001E-2</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
@@ -2990,30 +3004,30 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:17" s="2" customFormat="1" ht="30.95">
       <c r="A93" s="12" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B93" s="13">
-        <v>10.452999999999999</v>
+        <f>43.4*1.39</f>
+        <v>60.325999999999993</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
@@ -3023,31 +3037,30 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>89</v>
+    </row>
+    <row r="94" spans="1:17" s="2" customFormat="1" ht="15.6">
+      <c r="A94" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B94" s="13">
-        <f>-55.15/1000</f>
-        <v>-5.5149999999999998E-2</v>
+        <f>59.38*1.43</f>
+        <v>84.913399999999996</v>
       </c>
       <c r="C94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
@@ -3057,31 +3070,30 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
-        <v>32</v>
+    </row>
+    <row r="95" spans="1:17" ht="30.95">
+      <c r="A95" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="B95" s="13">
-        <f>-5.3/1000</f>
-        <v>-5.3E-3</v>
+        <f>6.88/1000</f>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="C95" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
@@ -3093,28 +3105,28 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A96" s="14" t="s">
-        <v>41</v>
+    <row r="96" spans="1:17" ht="15.6">
+      <c r="A96" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B96" s="13">
-        <v>-0.11912</v>
+        <v>10.452999999999999</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
@@ -3126,19 +3138,64 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+    <row r="97" spans="1:17" ht="30.95">
+      <c r="A97" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="13">
+        <f>-55.15/1000</f>
+        <v>-5.5149999999999998E-2</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:17" ht="30.95">
+      <c r="A98" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="13">
+        <f>-5.3/1000</f>
+        <v>-5.3E-3</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
@@ -3146,20 +3203,32 @@
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17" ht="30.95">
+      <c r="A99" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="13">
+        <v>-0.11912</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>86</v>
+      </c>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
@@ -3167,34 +3236,15 @@
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
-    </row>
-    <row r="100" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="11" t="s">
+      <c r="P99" s="1"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="101" spans="1:17" ht="15.6">
+      <c r="A101" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="11">
-        <v>-1</v>
+      <c r="B101" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3210,12 +3260,12 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
     </row>
-    <row r="102" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="15.6">
       <c r="A102" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3231,12 +3281,12 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
     </row>
-    <row r="103" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="15.6">
       <c r="A103" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3252,12 +3302,12 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
     </row>
-    <row r="104" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" ht="15.6">
       <c r="A104" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B104" s="11">
+        <v>-1</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3273,12 +3323,12 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="15.6">
       <c r="A105" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3294,11 +3344,13 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="11"/>
+    <row r="106" spans="1:17" ht="15.6">
+      <c r="A106" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -3313,79 +3365,40 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="16" t="s">
+    <row r="107" spans="1:17" ht="15.6">
+      <c r="A107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I107" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K107" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M107" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N107" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O107" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="str">
-        <f>B98</f>
-        <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
-      </c>
-      <c r="B108" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="11" t="str">
-        <f>B105</f>
-        <v>unit</v>
-      </c>
+      <c r="B107" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+    </row>
+    <row r="108" spans="1:17" ht="15.6">
+      <c r="A108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="11" t="str">
-        <f>B103</f>
-        <v>waste electrode from used solid oxide cell</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
@@ -3394,29 +3407,17 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="15">
-        <v>1.56</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>9</v>
-      </c>
+    <row r="109" spans="1:17" ht="15.6">
+      <c r="A109" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
@@ -3425,58 +3426,79 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="13">
-        <f>48.96/1000</f>
-        <v>4.8960000000000004E-2</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11" t="s">
+    <row r="110" spans="1:17" ht="15.6">
+      <c r="A110" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G110" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="13">
-        <f>9.61/1000</f>
-        <v>9.6099999999999988E-3</v>
+      <c r="E110" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M110" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O110" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="30.95">
+      <c r="A111" s="12" t="str">
+        <f>B101</f>
+        <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
+      </c>
+      <c r="B111" s="11">
+        <v>-1</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D111" s="11" t="str">
+        <f>B108</f>
+        <v>unit</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H111" s="11"/>
+      <c r="G111" s="11" t="str">
+        <f>B106</f>
+        <v>waste electrode from used solid oxide cell</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>89</v>
+      </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
@@ -3485,28 +3507,28 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="15.6">
       <c r="A112" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="13">
-        <v>6.36</v>
+        <v>59</v>
+      </c>
+      <c r="B112" s="15">
+        <v>1.56</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
@@ -3516,30 +3538,28 @@
       <c r="N112" s="11"/>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A113" s="14" t="s">
-        <v>89</v>
+    <row r="113" spans="1:15" ht="30.95">
+      <c r="A113" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B113" s="13">
-        <f>-2.04/1000</f>
-        <v>-2.0400000000000001E-3</v>
+        <f>48.96/1000</f>
+        <v>4.8960000000000004E-2</v>
       </c>
       <c r="C113" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>9</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
@@ -3548,30 +3568,28 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A114" s="14" t="s">
-        <v>32</v>
+    <row r="114" spans="1:15" ht="15.6">
+      <c r="A114" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B114" s="13">
-        <f>-1.57/1000</f>
-        <v>-1.57E-3</v>
+        <f>9.61/1000</f>
+        <v>9.6099999999999988E-3</v>
       </c>
       <c r="C114" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
@@ -3580,28 +3598,28 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A115" s="14" t="s">
-        <v>41</v>
+    <row r="115" spans="1:15" ht="15.6">
+      <c r="A115" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="B115" s="13">
-        <v>-0.5857</v>
+        <v>6.36</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
@@ -3611,6 +3629,101 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
     </row>
+    <row r="116" spans="1:15" ht="30.95">
+      <c r="A116" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" s="13">
+        <f>-2.04/1000</f>
+        <v>-2.0400000000000001E-3</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+    </row>
+    <row r="117" spans="1:15" ht="30.95">
+      <c r="A117" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" s="13">
+        <f>-1.57/1000</f>
+        <v>-1.57E-3</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+    </row>
+    <row r="118" spans="1:15" ht="30.95">
+      <c r="A118" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="13">
+        <v>-0.5857</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
